--- a/Fundamentals of artificial intelligence/91ПИц.xlsx
+++ b/Fundamentals of artificial intelligence/91ПИц.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\91PI\Fundamentals of artificial intelligence\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\91PI-main\Fundamentals of artificial intelligence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35ABE6AD-5C5A-43E7-81DB-8DB806C84EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A03B1D-A311-4BBA-A4BC-1C3FB66EA79B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Л.Р. 1</t>
   </si>
@@ -57,6 +49,36 @@
   </si>
   <si>
     <t>Итого:</t>
+  </si>
+  <si>
+    <t>Грядунов</t>
+  </si>
+  <si>
+    <t>Семенов</t>
+  </si>
+  <si>
+    <t>Жигалкин</t>
+  </si>
+  <si>
+    <t>Белоусов</t>
+  </si>
+  <si>
+    <t>Колесников</t>
+  </si>
+  <si>
+    <t>Канатников</t>
+  </si>
+  <si>
+    <t>Новиков</t>
+  </si>
+  <si>
+    <t>Кружилин</t>
+  </si>
+  <si>
+    <t>Ким</t>
+  </si>
+  <si>
+    <t>Фомин</t>
   </si>
 </sst>
 </file>
@@ -125,13 +147,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -416,7 +438,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,27 +458,27 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="5" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -492,13 +514,19 @@
       <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="5"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>10</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -508,14 +536,20 @@
       <c r="K3" s="2"/>
       <c r="L3" s="1">
         <f>SUM(B3:K3)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10</v>
+      </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -525,14 +559,20 @@
       <c r="K4" s="2"/>
       <c r="L4" s="1">
         <f t="shared" ref="L4:L16" si="0">SUM(B4:K4)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -542,14 +582,20 @@
       <c r="K5" s="2"/>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10</v>
+      </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -559,16 +605,20 @@
       <c r="K6" s="2"/>
       <c r="L6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>10</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -576,16 +626,20 @@
       <c r="K7" s="2"/>
       <c r="L7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1">
+        <v>10</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -593,16 +647,20 @@
       <c r="K8" s="2"/>
       <c r="L8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>10</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -610,12 +668,16 @@
       <c r="K9" s="2"/>
       <c r="L9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -627,12 +689,16 @@
       <c r="K10" s="2"/>
       <c r="L10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -644,12 +710,16 @@
       <c r="K11" s="2"/>
       <c r="L11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -661,7 +731,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
